--- a/TestCases/SauceLabDemoTestCases.xlsx
+++ b/TestCases/SauceLabDemoTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SauceLabDemoCoverGo\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BFFCD4-81E1-41DA-823F-49387A565B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC63C2A-E0B5-4F5E-B1BA-9C43FB869198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E7F736EB-E3BA-4954-A2A9-8988FA40E944}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Feature</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>The cart icon should be disabled</t>
+  </si>
+  <si>
+    <t>The Product Details page is loaded with the image, product description</t>
   </si>
 </sst>
 </file>
@@ -649,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303DC040-7036-4FEA-B35A-5BD886941185}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +750,7 @@
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
@@ -763,6 +766,7 @@
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" t="s">
         <v>31</v>
       </c>
@@ -776,6 +780,7 @@
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" t="s">
         <v>32</v>
       </c>
@@ -789,6 +794,7 @@
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" t="s">
         <v>33</v>
       </c>
@@ -819,7 +825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>62</v>
       </c>
@@ -836,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1069,12 +1075,7 @@
       <c r="D32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B24"/>
+  <mergeCells count="20">
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="B2:B3"/>
@@ -1089,6 +1090,12 @@
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestCases/SauceLabDemoTestCases.xlsx
+++ b/TestCases/SauceLabDemoTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SauceLabDemoCoverGo\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC63C2A-E0B5-4F5E-B1BA-9C43FB869198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D3E10F-B18D-448E-9159-6D5500203F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E7F736EB-E3BA-4954-A2A9-8988FA40E944}"/>
   </bookViews>
@@ -178,12 +178,6 @@
     <t>5. Click on Finish button</t>
   </si>
   <si>
-    <t>The Checkout Overview page is loaded
-There is Finish button
-Other fields are displayed: Payment Information, Shipping Information, Price Total, Total
-The item price is calculated correctly</t>
-  </si>
-  <si>
     <t>The Checkout Complete page is loaded with the message 
 Thank you for your order!
 Your order has been dispatched, and will arrive just as fast as the pony can get there!
@@ -281,6 +275,11 @@
   </si>
   <si>
     <t>The Product Details page is loaded with the image, product description</t>
+  </si>
+  <si>
+    <t>The Checkout Overview page is loaded
+There is Finish button
+Other fields are displayed: Payment Information, Shipping Information, Price Total, Total</t>
   </si>
 </sst>
 </file>
@@ -652,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303DC040-7036-4FEA-B35A-5BD886941185}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D20"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -694,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -718,7 +717,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -745,7 +744,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -788,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -807,7 +806,7 @@
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -827,7 +826,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
@@ -842,7 +841,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -873,7 +872,7 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -885,15 +884,15 @@
         <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -921,7 +920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
@@ -929,7 +928,7 @@
         <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -940,7 +939,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -948,18 +947,18 @@
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>36</v>
@@ -968,7 +967,7 @@
         <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -976,10 +975,10 @@
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -987,13 +986,13 @@
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1001,18 +1000,18 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>36</v>
@@ -1021,7 +1020,7 @@
         <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -1029,13 +1028,13 @@
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1050,19 +1049,19 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1076,6 +1075,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="B2:B3"/>
@@ -1092,10 +1095,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestCases/SauceLabDemoTestCases.xlsx
+++ b/TestCases/SauceLabDemoTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SauceLabDemoCoverGo\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D3E10F-B18D-448E-9159-6D5500203F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D986E2-355E-44B4-AB83-263F61D81AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E7F736EB-E3BA-4954-A2A9-8988FA40E944}"/>
   </bookViews>
@@ -311,10 +311,62 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -323,17 +375,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303DC040-7036-4FEA-B35A-5BD886941185}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,400 +758,474 @@
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="E3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="E5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" t="s">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="4"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
+  <mergeCells count="27">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A14:A32"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -1095,6 +1241,11 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestCases/SauceLabDemoTestCases.xlsx
+++ b/TestCases/SauceLabDemoTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SauceLabDemoCoverGo\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D986E2-355E-44B4-AB83-263F61D81AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192C152-D736-45F4-AFC5-030B655A32EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E7F736EB-E3BA-4954-A2A9-8988FA40E944}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>2. Input valid username and password then click on Login button</t>
   </si>
   <si>
-    <t>The Product page is loaded</t>
-  </si>
-  <si>
     <t>Verify the user logins unsuccessfully</t>
   </si>
   <si>
@@ -82,39 +79,19 @@
 password: secret_sauce1</t>
   </si>
   <si>
-    <t>The error message "Epic sadface: Username and password do not match any user in this service" is shown</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
     <t>Sauce Labs Backpack</t>
   </si>
   <si>
-    <t>Verify the cart shows number 1
-The Add to cart button changes to Remove</t>
-  </si>
-  <si>
     <t>Sauce Labs Bolt T-Shirt</t>
   </si>
   <si>
-    <t>Verify the cart shows number 2
-The Add to cart button changes to Remove</t>
-  </si>
-  <si>
     <t>Verify the user is able to view the product detail</t>
   </si>
   <si>
-    <t>The Product Details page is loaded with the image, product description
-The Add to cart button is displayed
-The link Back to products is shown</t>
-  </si>
-  <si>
     <t>Verify the user is able to add and remove one or more products from Product page</t>
-  </si>
-  <si>
-    <t>Verify the number of products disappeared
-The Remove button is changed to Add to cart button</t>
   </si>
   <si>
     <t>Verify the user is able to add or remove the product from the Product Detail page</t>
@@ -165,10 +142,6 @@
     <t>2. Click on Checkout button</t>
   </si>
   <si>
-    <t>The Checkout page is loaded with FirstName, LastName, Zip Code
-There has Continue button and Cancel button</t>
-  </si>
-  <si>
     <t>3. Input FirstName, LastName, and Zip Code</t>
   </si>
   <si>
@@ -178,18 +151,9 @@
     <t>5. Click on Finish button</t>
   </si>
   <si>
-    <t>The Checkout Complete page is loaded with the message 
-Thank you for your order!
-Your order has been dispatched, and will arrive just as fast as the pony can get there!
-There is a Back Home button</t>
-  </si>
-  <si>
     <t>6. Click on Back Home button</t>
   </si>
   <si>
-    <t>The Products page is loaded</t>
-  </si>
-  <si>
     <t>Verify the user is able to continue shopping</t>
   </si>
   <si>
@@ -208,18 +172,12 @@
     <t>4. Click on cart icon</t>
   </si>
   <si>
-    <t>The Cart page displays 3 products</t>
-  </si>
-  <si>
     <t>Verify the user is able to remove product out of his cart</t>
   </si>
   <si>
     <t>2. Click on Remove for any product</t>
   </si>
   <si>
-    <t>The cart shows number 1</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -250,36 +208,78 @@
     <t>Demo9</t>
   </si>
   <si>
+    <t>Verify the user is able to checkout successfully</t>
+  </si>
+  <si>
+    <t>Demo10</t>
+  </si>
+  <si>
+    <t>Verify the cart icon should be disabled in case of no product</t>
+  </si>
+  <si>
+    <t>1. Attempt to click on cart icon</t>
+  </si>
+  <si>
+    <t>Verify that the Product page is loaded</t>
+  </si>
+  <si>
+    <t>Verify that the error message "Epic sadface: Username and password do not match any user in this service" is shown</t>
+  </si>
+  <si>
+    <t>Verify the cart shows number 1
+Verify the Add to cart button changes to Remove</t>
+  </si>
+  <si>
+    <t>Verify the cart shows number 2
+Verify the Add to cart button changes to Remove</t>
+  </si>
+  <si>
     <t>Verify the number of products decrease to 1
-The Remove button is changed to Add to cart button</t>
-  </si>
-  <si>
-    <t>The Your Cart page is displayed with product list and their quantity is to 1
-There is a Checkout button
-There is a Continue Shopping</t>
-  </si>
-  <si>
-    <t>Verify the user is able to checkout successfully</t>
-  </si>
-  <si>
-    <t>Demo10</t>
-  </si>
-  <si>
-    <t>Verify the cart icon should be disabled in case of no product</t>
-  </si>
-  <si>
-    <t>1. Attempt to click on cart icon</t>
-  </si>
-  <si>
-    <t>The cart icon should be disabled</t>
-  </si>
-  <si>
-    <t>The Product Details page is loaded with the image, product description</t>
-  </si>
-  <si>
-    <t>The Checkout Overview page is loaded
-There is Finish button
-Other fields are displayed: Payment Information, Shipping Information, Price Total, Total</t>
+Verify the Remove button is changed to Add to cart button</t>
+  </si>
+  <si>
+    <t>Verify the number of products disappeared
+Verify the Remove button is changed to Add to cart button</t>
+  </si>
+  <si>
+    <t>Veirfy the Product Details page is loaded with the image, product description
+Verify the Add to cart button is displayed
+Veirfy the link Back to products is shown</t>
+  </si>
+  <si>
+    <t>Verify the Product Details page is loaded with the image, product description</t>
+  </si>
+  <si>
+    <t>Verify the Your Cart page is displayed with product list and their quantity is to 1
+Verify there is a Checkout button
+Verify there is a Continue Shopping</t>
+  </si>
+  <si>
+    <t>Veirfy the Checkout page is loaded with FirstName, LastName, Zip Code
+Verify there has Continue button and Cancel button</t>
+  </si>
+  <si>
+    <t>Verify the Checkout Overview page is loaded
+Verify there is Finish button
+Veirfy other fields are displayed: Payment Information, Shipping Information, Price Total, Total</t>
+  </si>
+  <si>
+    <t>Verify the Checkout Complete page is loaded with the message 
+"Thank you for your order!
+Your order has been dispatched, and will arrive just as fast as the pony can get there!"
+Verify there is a Back Home button</t>
+  </si>
+  <si>
+    <t>Verify the Products page is loaded</t>
+  </si>
+  <si>
+    <t>Verify the Cart page displays 3 products</t>
+  </si>
+  <si>
+    <t>Verify the cart shows number 1</t>
+  </si>
+  <si>
+    <t>Verify the cart icon should be disabled</t>
   </si>
 </sst>
 </file>
@@ -379,18 +379,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,6 +399,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -724,7 +724,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -761,464 +761,475 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="D29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="A14:A32"/>
@@ -1235,17 +1246,6 @@
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D15:D20"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
